--- a/data/OR110-1_case01 (2).xlsx
+++ b/data/OR110-1_case01 (2).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9409B85-7128-4C37-B902-E284A8E4C0EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FAC24D-A832-4608-8E72-896116EF6BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19337" windowHeight="8546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6930" yWindow="340" windowWidth="12200" windowHeight="8930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instance 1" sheetId="4" r:id="rId1"/>
@@ -17,12 +17,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="21">
   <si>
     <t>Job ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +77,42 @@
     <t>Process 6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>p1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2- step1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2-step2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -95,12 +141,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,10 +167,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -401,306 +461,866 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6669D145-8555-8742-8280-CF7EDB4786BD}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33:K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="I1" s="6"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
         <v>2.7</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>1.3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="5">
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
         <v>1.6</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>1.4</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="5">
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
         <v>0.7</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>1.9</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="5">
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
         <v>0.5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>0.7</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="5">
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
         <v>0.8</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
         <v>2.5</v>
       </c>
-      <c r="G7" s="1">
+      <c r="F7" s="4"/>
+      <c r="G7" s="5">
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
         <v>1.4</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="5">
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="5">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
         <v>0.8</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>0.7</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="5">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.5</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="5">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>1.4</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="5">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
         <v>2</v>
       </c>
-      <c r="G13" s="1">
+      <c r="F13" s="4"/>
+      <c r="G13" s="5">
         <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3.7</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f>F17-E2</f>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f>G17-F2</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:J28" si="0">F18-E3</f>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:K28" si="1">G18-F3</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>0.7</v>
+      </c>
+      <c r="G19">
+        <v>3.3</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>4.3</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>0.8</v>
+      </c>
+      <c r="G21">
+        <v>1.8</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>4.8</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>1.4</v>
+      </c>
+      <c r="G23">
+        <v>3.8</v>
+      </c>
+      <c r="I23">
+        <v>7</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>8.9</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>6.3</v>
+      </c>
+      <c r="G25">
+        <v>7.8</v>
+      </c>
+      <c r="I25">
+        <v>9</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.5</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>8.6</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>11</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>12</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2.7</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <f>F33-E2</f>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f>G33-F2</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1.6</v>
+      </c>
+      <c r="G34">
+        <v>3.5</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34:J44" si="2">F34-E3</f>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ref="K34:K44" si="3">G34-F3</f>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>3.1</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>2.1</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>2.4</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>1.4</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>7</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>6.1</v>
+      </c>
+      <c r="G40">
+        <v>7.9</v>
+      </c>
+      <c r="I40">
+        <v>8</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>5.8</v>
+      </c>
+      <c r="G41">
+        <v>6.5</v>
+      </c>
+      <c r="I41">
+        <v>9</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>7.4</v>
+      </c>
+      <c r="G42">
+        <v>7.9</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>6.4</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>11</v>
+      </c>
+      <c r="F43">
+        <v>6.5</v>
+      </c>
+      <c r="G43">
+        <v>7.9</v>
+      </c>
+      <c r="I43">
+        <v>11</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>12</v>
+      </c>
+      <c r="F44">
+        <v>6.9</v>
+      </c>
+      <c r="I44">
+        <v>12</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -712,22 +1332,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F5234E-061C-F448-8BA0-B95094A59E36}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:E27"/>
+    <sheetView topLeftCell="P10" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16:V26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -774,7 +1394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -803,7 +1423,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -832,7 +1452,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -873,7 +1493,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -920,7 +1540,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -949,7 +1569,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -966,7 +1586,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -989,7 +1609,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1012,7 +1632,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1041,7 +1661,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1082,7 +1702,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1109,6 +1729,504 @@
       </c>
       <c r="O12" s="1">
         <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>7.7</v>
+      </c>
+      <c r="J16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K16">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f>I16-I2</f>
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <f>J16-J2</f>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ref="S16:V26" si="0">K16-K2</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2.6</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ref="Q17:Q27" si="1">I17-I3</f>
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ref="R17:R26" si="2">J17-J3</f>
+        <v>2.6</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K18">
+        <v>2.4</v>
+      </c>
+      <c r="L18">
+        <v>2.7</v>
+      </c>
+      <c r="M18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>0.5</v>
+      </c>
+      <c r="J19">
+        <v>1.2</v>
+      </c>
+      <c r="K19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L19">
+        <v>2.8</v>
+      </c>
+      <c r="M19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>0.8</v>
+      </c>
+      <c r="J20">
+        <v>3.9</v>
+      </c>
+      <c r="K20">
+        <v>4.8</v>
+      </c>
+      <c r="P20">
+        <v>5</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>2.9</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>3.5</v>
+      </c>
+      <c r="P21">
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22">
+        <v>1.4</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <v>7</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>6.7</v>
+      </c>
+      <c r="J23">
+        <v>7.8</v>
+      </c>
+      <c r="P23">
+        <v>8</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>5.6</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>5.6</v>
+      </c>
+      <c r="J24">
+        <v>8.4</v>
+      </c>
+      <c r="K24">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P24">
+        <v>9</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>7.4</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>5.9</v>
+      </c>
+      <c r="J25">
+        <v>6.4</v>
+      </c>
+      <c r="K25">
+        <v>7.1</v>
+      </c>
+      <c r="L25">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M25">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P25">
+        <v>10</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>5.9</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>6.3999999999999995</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>11</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>7.4</v>
+      </c>
+      <c r="K26">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P26">
+        <v>11</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1120,22 +2238,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71C80C1-2255-9349-8D06-04958F9DFCF0}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="I10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -1176,7 +2294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1205,7 +2323,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1234,7 +2352,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1275,7 +2393,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1316,7 +2434,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1345,7 +2463,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1362,7 +2480,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1385,7 +2503,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1402,7 +2520,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1431,7 +2549,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1470,6 +2588,411 @@
       </c>
       <c r="M11" s="1">
         <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f>H17-H2</f>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ref="Q17:T27" si="0">I17-I2</f>
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>1.6</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:P26" si="1">H18-H3</f>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>6.3</v>
+      </c>
+      <c r="I19">
+        <v>7.2</v>
+      </c>
+      <c r="J19">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K19">
+        <v>8.6</v>
+      </c>
+      <c r="L19">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>7.2000000000000011</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>8.2999999999999989</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>8.6000000000000014</v>
+      </c>
+    </row>
+    <row r="20" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>5.8</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+      <c r="K20">
+        <v>8.5</v>
+      </c>
+      <c r="L20">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>9.2000000000000011</v>
+      </c>
+    </row>
+    <row r="21" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>1.2</v>
+      </c>
+      <c r="I21">
+        <v>1.9</v>
+      </c>
+      <c r="J21">
+        <v>3.7</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>3.3</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>6.3</v>
+      </c>
+      <c r="I23">
+        <v>9.1</v>
+      </c>
+      <c r="O23">
+        <v>7</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>7.6</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>7.6</v>
+      </c>
+      <c r="O24">
+        <v>8</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>6.3</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <v>4.5</v>
+      </c>
+      <c r="I25">
+        <v>5.5</v>
+      </c>
+      <c r="J25">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O25">
+        <v>9</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>3.7</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>5.6</v>
+      </c>
+      <c r="I26">
+        <v>6.9</v>
+      </c>
+      <c r="J26">
+        <v>7.6</v>
+      </c>
+      <c r="K26">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L26">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O26">
+        <v>10</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>6.8999999999999995</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="0"/>
+        <v>8.7000000000000011</v>
       </c>
     </row>
   </sheetData>

--- a/data/OR110-1_case01 (2).xlsx
+++ b/data/OR110-1_case01 (2).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FAC24D-A832-4608-8E72-896116EF6BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A352B172-6BD7-4B35-842B-68188083D4FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="340" windowWidth="12200" windowHeight="8930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6934" yWindow="343" windowWidth="12197" windowHeight="8931" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instance 1" sheetId="4" r:id="rId1"/>
@@ -16,16 +16,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -463,20 +453,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6669D145-8555-8742-8280-CF7EDB4786BD}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33:K44"/>
+    <sheetView topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -501,7 +491,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -524,7 +514,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -547,7 +537,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -570,7 +560,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -593,7 +583,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -616,7 +606,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -635,7 +625,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -658,7 +648,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -681,7 +671,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -704,7 +694,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -727,7 +717,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -750,7 +740,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -769,12 +759,12 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F16" t="s">
         <v>12</v>
       </c>
@@ -788,7 +778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.4">
       <c r="E17">
         <v>1</v>
       </c>
@@ -810,7 +800,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.4">
       <c r="E18">
         <v>2</v>
       </c>
@@ -832,7 +822,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.4">
       <c r="E19">
         <v>3</v>
       </c>
@@ -854,7 +844,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.4">
       <c r="E20">
         <v>4</v>
       </c>
@@ -876,7 +866,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.4">
       <c r="E21">
         <v>5</v>
       </c>
@@ -898,7 +888,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.4">
       <c r="E22">
         <v>6</v>
       </c>
@@ -917,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.4">
       <c r="E23">
         <v>7</v>
       </c>
@@ -939,7 +929,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:11" x14ac:dyDescent="0.4">
       <c r="E24">
         <v>8</v>
       </c>
@@ -961,7 +951,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.4">
       <c r="E25">
         <v>9</v>
       </c>
@@ -983,7 +973,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:11" x14ac:dyDescent="0.4">
       <c r="E26">
         <v>10</v>
       </c>
@@ -1005,7 +995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:11" x14ac:dyDescent="0.4">
       <c r="E27">
         <v>11</v>
       </c>
@@ -1027,7 +1017,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:11" x14ac:dyDescent="0.4">
       <c r="E28">
         <v>12</v>
       </c>
@@ -1046,12 +1036,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:11" x14ac:dyDescent="0.4">
       <c r="F32" t="s">
         <v>12</v>
       </c>
@@ -1065,7 +1055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E33">
         <v>1</v>
       </c>
@@ -1087,7 +1077,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E34">
         <v>2</v>
       </c>
@@ -1109,7 +1099,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E35">
         <v>3</v>
       </c>
@@ -1131,7 +1121,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E36">
         <v>4</v>
       </c>
@@ -1153,7 +1143,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E37">
         <v>5</v>
       </c>
@@ -1175,7 +1165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E38">
         <v>6</v>
       </c>
@@ -1194,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E39">
         <v>7</v>
       </c>
@@ -1216,7 +1206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E40">
         <v>8</v>
       </c>
@@ -1238,7 +1228,7 @@
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E41">
         <v>9</v>
       </c>
@@ -1260,7 +1250,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E42">
         <v>10</v>
       </c>
@@ -1282,7 +1272,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E43">
         <v>11</v>
       </c>
@@ -1304,7 +1294,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.4">
       <c r="E44">
         <v>12</v>
       </c>
@@ -1334,20 +1324,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F5234E-061C-F448-8BA0-B95094A59E36}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView topLeftCell="P10" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16:V26"/>
+    <sheetView topLeftCell="A10" zoomScale="71" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1423,7 +1413,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1452,7 +1442,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1493,7 +1483,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1540,7 +1530,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1569,7 +1559,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1586,7 +1576,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1609,7 +1599,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1632,7 +1622,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1661,7 +1651,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1702,7 +1692,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1731,7 +1721,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="I15" t="s">
         <v>12</v>
       </c>
@@ -1769,7 +1759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="H16">
         <v>1</v>
       </c>
@@ -1810,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:22" x14ac:dyDescent="0.4">
       <c r="H17">
         <v>2</v>
       </c>
@@ -1820,23 +1810,23 @@
       <c r="J17">
         <v>4</v>
       </c>
-      <c r="K17">
-        <v>4</v>
+      <c r="K17" s="4">
+        <v>4.9000000000000004</v>
       </c>
       <c r="P17">
         <v>2</v>
       </c>
       <c r="Q17">
-        <f t="shared" ref="Q17:Q27" si="1">I17-I3</f>
+        <f t="shared" ref="Q17:Q26" si="1">I17-I3</f>
         <v>1</v>
       </c>
       <c r="R17">
         <f t="shared" ref="R17:R26" si="2">J17-J3</f>
         <v>2.6</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="0"/>
-        <v>3.1</v>
+      <c r="S17" s="4">
+        <f>K17-K3</f>
+        <v>4</v>
       </c>
       <c r="T17">
         <f t="shared" si="0"/>
@@ -1851,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:22" x14ac:dyDescent="0.4">
       <c r="H18">
         <v>3</v>
       </c>
@@ -1861,8 +1851,8 @@
       <c r="J18">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K18">
-        <v>2.4</v>
+      <c r="K18" s="4">
+        <v>2.5</v>
       </c>
       <c r="L18">
         <v>2.7</v>
@@ -1881,9 +1871,9 @@
         <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+      <c r="S18" s="4">
+        <f>K18-K4</f>
+        <v>2.2999999999999998</v>
       </c>
       <c r="T18">
         <f t="shared" si="0"/>
@@ -1898,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:22" x14ac:dyDescent="0.4">
       <c r="H19">
         <v>4</v>
       </c>
@@ -1948,7 +1938,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:22" x14ac:dyDescent="0.4">
       <c r="H20">
         <v>5</v>
       </c>
@@ -1989,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:22" x14ac:dyDescent="0.4">
       <c r="H21">
         <v>6</v>
       </c>
@@ -2024,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:22" x14ac:dyDescent="0.4">
       <c r="H22">
         <v>7</v>
       </c>
@@ -2062,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:22" x14ac:dyDescent="0.4">
       <c r="H23">
         <v>8</v>
       </c>
@@ -2100,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:22" x14ac:dyDescent="0.4">
       <c r="H24">
         <v>9</v>
       </c>
@@ -2141,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:22" x14ac:dyDescent="0.4">
       <c r="H25">
         <v>10</v>
       </c>
@@ -2188,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:22" x14ac:dyDescent="0.4">
       <c r="H26">
         <v>11</v>
       </c>
@@ -2240,20 +2230,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71C80C1-2255-9349-8D06-04958F9DFCF0}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD24" sqref="AD24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26:T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2294,7 +2284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2323,7 +2313,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2352,7 +2342,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2393,7 +2383,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2434,7 +2424,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2463,7 +2453,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2480,7 +2470,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2503,7 +2493,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2520,7 +2510,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2549,7 +2539,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2590,7 +2580,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="H16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2622,7 +2612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:20" x14ac:dyDescent="0.4">
       <c r="G17">
         <v>1</v>
       </c>
@@ -2643,11 +2633,11 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <f t="shared" ref="Q17:T27" si="0">I17-I2</f>
+        <f>I17-I2</f>
         <v>2</v>
       </c>
       <c r="R17">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="R17:T17" si="0">J17-J2</f>
         <v>3.0999999999999996</v>
       </c>
       <c r="S17">
@@ -2659,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:20" x14ac:dyDescent="0.4">
       <c r="G18">
         <v>2</v>
       </c>
@@ -2676,27 +2666,27 @@
         <v>2</v>
       </c>
       <c r="P18">
-        <f t="shared" ref="P18:P26" si="1">H18-H3</f>
+        <f>H18-H3</f>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="0"/>
+        <f>I18-I3</f>
         <v>1.6</v>
       </c>
       <c r="R18">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="R18:T26" si="1">J18-J3</f>
         <v>3</v>
       </c>
       <c r="S18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:20" x14ac:dyDescent="0.4">
       <c r="G19">
         <v>3</v>
       </c>
@@ -2719,27 +2709,27 @@
         <v>3</v>
       </c>
       <c r="P19">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="P19:P26" si="2">H19-H4</f>
         <v>3.3</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q17:T26" si="3">I19-I4</f>
         <v>6.4</v>
       </c>
       <c r="R19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2000000000000011</v>
       </c>
       <c r="S19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2999999999999989</v>
       </c>
       <c r="T19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6000000000000014</v>
       </c>
     </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:20" x14ac:dyDescent="0.4">
       <c r="G20">
         <v>4</v>
       </c>
@@ -2762,27 +2752,27 @@
         <v>4</v>
       </c>
       <c r="P20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.8</v>
       </c>
       <c r="R20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="S20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="T20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2000000000000011</v>
       </c>
     </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:20" x14ac:dyDescent="0.4">
       <c r="G21">
         <v>5</v>
       </c>
@@ -2799,27 +2789,27 @@
         <v>5</v>
       </c>
       <c r="P21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
       <c r="R21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9000000000000001</v>
       </c>
       <c r="S21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:20" x14ac:dyDescent="0.4">
       <c r="G22">
         <v>6</v>
       </c>
@@ -2830,27 +2820,27 @@
         <v>6</v>
       </c>
       <c r="P22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="7:20" x14ac:dyDescent="0.4">
       <c r="G23">
         <v>7</v>
       </c>
@@ -2864,27 +2854,27 @@
         <v>7</v>
       </c>
       <c r="P23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
       <c r="R23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="7:20" x14ac:dyDescent="0.4">
       <c r="G24">
         <v>8</v>
       </c>
@@ -2895,27 +2885,27 @@
         <v>8</v>
       </c>
       <c r="P24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="7:20" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="7:20" x14ac:dyDescent="0.4">
       <c r="G25">
         <v>9</v>
       </c>
@@ -2932,27 +2922,27 @@
         <v>9</v>
       </c>
       <c r="P25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="R25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6000000000000005</v>
       </c>
       <c r="S25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="7:20" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:20" x14ac:dyDescent="0.4">
       <c r="G26">
         <v>10</v>
       </c>
@@ -2975,23 +2965,23 @@
         <v>10</v>
       </c>
       <c r="P26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.6000000000000005</v>
       </c>
       <c r="R26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8999999999999995</v>
       </c>
       <c r="S26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
       <c r="T26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.7000000000000011</v>
       </c>
     </row>
